--- a/Meeting Agenda_Sheet.xlsx
+++ b/Meeting Agenda_Sheet.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>Meeting Agenda</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>Dev Team</t>
-  </si>
-  <si>
-    <t>Maha</t>
   </si>
   <si>
     <t>Contingency Plan</t>
@@ -192,12 +189,30 @@
   <si>
     <t>Design Finalization</t>
   </si>
+  <si>
+    <t>Group Functionality - Decision</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>zinvia</t>
+  </si>
+  <si>
+    <t>Update the Design Doc for Group functionality, Couples Functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group - only for common groups not event based.  Events can be created with in a group.                                                        Couples should be able to find couples only events. Individuals wont be allowed to look at events created by couples </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,8 +243,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,6 +292,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -327,17 +368,26 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,7 +670,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -631,7 +683,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9">
+      <c r="A1" s="6">
         <v>43085</v>
       </c>
     </row>
@@ -654,7 +706,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -671,7 +723,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -711,41 +763,45 @@
       <c r="C10" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="9">
         <v>43099</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="10"/>
-    </row>
-    <row r="14" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:3" ht="225.75" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="11"/>
+      <c r="C14" s="17" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="11"/>
+      <c r="C15" s="8"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="11"/>
+      <c r="C16" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -755,16 +811,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="54.140625" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
@@ -772,108 +828,154 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="12">
+        <v>43115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="12">
+        <v>43087</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="12">
+        <v>43115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12">
+        <v>43100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="6">
-        <v>43115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="6">
-        <v>43087</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="12">
+        <v>43120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12">
+        <v>43092</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="6">
+      <c r="D8" s="14"/>
+      <c r="E8" s="15">
         <v>43100</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="6">
-        <v>43100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6">
-        <v>43120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="6">
-        <v>43092</v>
-      </c>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Meeting Agenda_Sheet.xlsx
+++ b/Meeting Agenda_Sheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\Herewego App\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mydeen\Mcube_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Agenda" sheetId="1" r:id="rId1"/>
@@ -670,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
